--- a/xlsx/社会分工论_intext.xlsx
+++ b/xlsx/社会分工论_intext.xlsx
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>社會學家</t>
+    <t>社会学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E7%B1%B3%E5%B0%94%C2%B7%E6%B6%82%E5%B0%94%E5%B9%B2</t>
@@ -65,19 +65,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E7%AF%84</t>
   </si>
   <si>
-    <t>失範</t>
+    <t>失范</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%9D%B1%E5%B0%BC%C2%B7%E7%B4%80%E7%99%BB%E6%96%AF</t>
   </si>
   <si>
-    <t>安東尼·紀登斯</t>
+    <t>安东尼·纪登斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
